--- a/Functional documents/GuardianTable.xlsx
+++ b/Functional documents/GuardianTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="50">
   <si>
     <t>child_admission_id</t>
   </si>
@@ -661,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1137,26 +1137,26 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
+      </c>
+      <c r="D74" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -1172,47 +1172,47 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
         <v>14</v>
       </c>
-      <c r="B77" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="B78" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
         <v>17</v>
       </c>
-      <c r="B81" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="B82" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
         <v>26</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
         <v>26</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
@@ -1276,26 +1276,26 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>27</v>
-      </c>
-      <c r="D92" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D93" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B94" t="s">
         <v>26</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
         <v>26</v>
@@ -1319,72 +1319,79 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
         <v>13</v>
       </c>
-      <c r="B97" t="s">
-        <v>27</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="B98" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>25</v>
-      </c>
-      <c r="B99" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
         <v>24</v>
       </c>
-      <c r="B100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>18</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="B101" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
-      </c>
-      <c r="D103" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D104" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
         <v>21</v>
       </c>
-      <c r="B105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="B106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
